--- a/enf.xlsx
+++ b/enf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC054B-C777-42D3-86E7-850850B0B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14FDCD-A8E4-46E4-AC15-16C6ECAE14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -86,6 +86,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,6 +2165,14 @@
         <v>2207.5</v>
       </c>
     </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B222" s="3">
+        <v>2281.8926999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/enf.xlsx
+++ b/enf.xlsx
@@ -1,40 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E16AEA-87B9-4604-92E9-C1A842B47231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>TÜFE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +71,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,257 +398,1826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TÜFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>38748</v>
+      </c>
+      <c r="B2">
+        <v>123.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>38776</v>
+      </c>
+      <c r="B3">
+        <v>123.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>38807</v>
+      </c>
+      <c r="B4">
+        <v>124.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>38837</v>
+      </c>
+      <c r="B5">
+        <v>125.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>38868</v>
+      </c>
+      <c r="B6">
+        <v>128.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>38898</v>
+      </c>
+      <c r="B7">
+        <v>128.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>38929</v>
+      </c>
+      <c r="B8">
+        <v>129.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>38960</v>
+      </c>
+      <c r="B9">
+        <v>129.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>38990</v>
+      </c>
+      <c r="B10">
+        <v>130.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>39021</v>
+      </c>
+      <c r="B11">
+        <v>132.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>39051</v>
+      </c>
+      <c r="B12">
+        <v>134.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>39082</v>
+      </c>
+      <c r="B13">
+        <v>134.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>39113</v>
+      </c>
+      <c r="B14">
+        <v>135.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>39141</v>
+      </c>
+      <c r="B15">
+        <v>136.41999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39172</v>
+      </c>
+      <c r="B16">
+        <v>137.66999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>39202</v>
+      </c>
+      <c r="B17">
+        <v>139.33000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>39233</v>
+      </c>
+      <c r="B18">
+        <v>140.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>39263</v>
+      </c>
+      <c r="B19">
+        <v>139.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39294</v>
+      </c>
+      <c r="B20">
+        <v>138.66999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39325</v>
+      </c>
+      <c r="B21">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>39355</v>
+      </c>
+      <c r="B22">
+        <v>140.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>39386</v>
+      </c>
+      <c r="B23">
+        <v>142.66999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>39416</v>
+      </c>
+      <c r="B24">
+        <v>145.44999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>39447</v>
+      </c>
+      <c r="B25">
+        <v>145.77000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>39478</v>
+      </c>
+      <c r="B26">
+        <v>146.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>39507</v>
+      </c>
+      <c r="B27">
+        <v>148.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39538</v>
+      </c>
+      <c r="B28">
+        <v>150.27000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>39568</v>
+      </c>
+      <c r="B29">
+        <v>152.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>39599</v>
+      </c>
+      <c r="B30">
+        <v>155.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>39629</v>
+      </c>
+      <c r="B31">
+        <v>154.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39660</v>
+      </c>
+      <c r="B32">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>39691</v>
+      </c>
+      <c r="B33">
+        <v>155.02000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>39721</v>
+      </c>
+      <c r="B34">
+        <v>155.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39752</v>
+      </c>
+      <c r="B35">
+        <v>159.77000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39782</v>
+      </c>
+      <c r="B36">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39813</v>
+      </c>
+      <c r="B37">
+        <v>160.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>39844</v>
+      </c>
+      <c r="B38">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39872</v>
+      </c>
+      <c r="B39">
+        <v>160.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39903</v>
+      </c>
+      <c r="B40">
+        <v>162.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39933</v>
+      </c>
+      <c r="B41">
+        <v>162.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39964</v>
+      </c>
+      <c r="B42">
+        <v>163.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>39994</v>
+      </c>
+      <c r="B43">
+        <v>163.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>40025</v>
+      </c>
+      <c r="B44">
+        <v>163.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>40056</v>
+      </c>
+      <c r="B45">
+        <v>163.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>40086</v>
+      </c>
+      <c r="B46">
+        <v>163.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40117</v>
+      </c>
+      <c r="B47">
+        <v>167.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>40147</v>
+      </c>
+      <c r="B48">
+        <v>170.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>40178</v>
+      </c>
+      <c r="B49">
+        <v>170.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>40209</v>
+      </c>
+      <c r="B50">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>40237</v>
+      </c>
+      <c r="B51">
+        <v>176.59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B52">
+        <v>177.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>40298</v>
+      </c>
+      <c r="B53">
+        <v>178.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>40329</v>
+      </c>
+      <c r="B54">
+        <v>178.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B55">
+        <v>177.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>40390</v>
+      </c>
+      <c r="B56">
+        <v>176.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40421</v>
+      </c>
+      <c r="B57">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40451</v>
+      </c>
+      <c r="B58">
+        <v>179.07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40482</v>
+      </c>
+      <c r="B59">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40512</v>
+      </c>
+      <c r="B60">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B61">
+        <v>181.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40574</v>
+      </c>
+      <c r="B62">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40602</v>
+      </c>
+      <c r="B63">
+        <v>183.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>40633</v>
+      </c>
+      <c r="B64">
+        <v>184.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40663</v>
+      </c>
+      <c r="B65">
+        <v>186.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>40694</v>
+      </c>
+      <c r="B66">
+        <v>190.81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>40724</v>
+      </c>
+      <c r="B67">
+        <v>188.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>40755</v>
+      </c>
+      <c r="B68">
+        <v>187.31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>40786</v>
+      </c>
+      <c r="B69">
+        <v>188.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B70">
+        <v>190.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>40847</v>
+      </c>
+      <c r="B71">
+        <v>196.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>40877</v>
+      </c>
+      <c r="B72">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B73">
+        <v>200.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>40939</v>
+      </c>
+      <c r="B74">
+        <v>201.98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>40968</v>
+      </c>
+      <c r="B75">
+        <v>203.12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B76">
+        <v>203.96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>41029</v>
+      </c>
+      <c r="B77">
+        <v>207.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>41060</v>
+      </c>
+      <c r="B78">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B79">
+        <v>204.76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>41121</v>
+      </c>
+      <c r="B80">
+        <v>204.29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B81">
+        <v>205.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B82">
+        <v>207.55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B83">
+        <v>211.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B84">
+        <v>212.42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B85">
+        <v>213.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>41305</v>
+      </c>
+      <c r="B86">
+        <v>216.74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B87">
+        <v>217.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B88">
+        <v>218.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>41394</v>
+      </c>
+      <c r="B89">
+        <v>219.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B90">
+        <v>220.07</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B91">
+        <v>221.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B92">
+        <v>222.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41517</v>
+      </c>
+      <c r="B93">
+        <v>222.21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B94">
+        <v>223.91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B95">
+        <v>227.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>41608</v>
+      </c>
+      <c r="B96">
+        <v>227.96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B97">
+        <v>229.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B98">
+        <v>233.54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B99">
+        <v>234.54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B100">
+        <v>237.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B101">
+        <v>240.37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B102">
+        <v>241.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B103">
+        <v>242.07</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B104">
+        <v>243.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B105">
+        <v>243.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B106">
+        <v>243.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B107">
+        <v>248.37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B108">
+        <v>248.82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B109">
+        <v>247.72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B110">
+        <v>250.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B111">
+        <v>252.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B112">
+        <v>255.23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B113">
+        <v>259.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>42155</v>
+      </c>
+      <c r="B114">
+        <v>260.85000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B115">
+        <v>259.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B116">
+        <v>259.74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B117">
+        <v>260.77999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B118">
+        <v>263.11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B119">
+        <v>267.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B120">
+        <v>268.98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B121">
+        <v>269.54000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B122">
+        <v>274.44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B123">
+        <v>274.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B124">
+        <v>274.27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B125">
+        <v>276.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B126">
+        <v>278.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B127">
+        <v>279.33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B128">
+        <v>282.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B129">
+        <v>281.76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B130">
+        <v>282.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B131">
+        <v>286.33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B132">
+        <v>287.81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B133">
+        <v>292.54000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B134">
+        <v>299.74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B135">
+        <v>302.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B136">
+        <v>305.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B137">
+        <v>309.23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B138">
+        <v>310.61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B139">
+        <v>309.77999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B140">
+        <v>310.24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B141">
+        <v>311.85000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B142">
+        <v>313.88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B143">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B144">
+        <v>325.18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B145">
+        <v>327.41000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B146">
+        <v>330.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B147">
+        <v>333.17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B148">
+        <v>336.48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B149">
+        <v>342.78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B150">
+        <v>348.34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B151">
+        <v>357.44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B152">
+        <v>359.41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B153">
+        <v>367.66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B154">
+        <v>390.84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B155">
+        <v>401.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B156">
+        <v>395.48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B157">
+        <v>393.88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B158">
+        <v>398.07</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B159">
+        <v>398.71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B160">
+        <v>402.81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B161">
+        <v>409.63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B162">
+        <v>413.52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B163">
+        <v>413.63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B164">
+        <v>419.24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B165">
+        <v>422.84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B166">
+        <v>427.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B167">
+        <v>435.59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B168">
+        <v>437.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B169">
+        <v>440.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B170">
+        <v>446.45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B171">
+        <v>448.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B172">
+        <v>450.58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B173">
+        <v>454.43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B174">
+        <v>460.62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B175">
+        <v>465.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B176">
+        <v>468.56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B177">
+        <v>472.61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B178">
+        <v>477.21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B179">
+        <v>487.38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B180">
+        <v>498.58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B181">
+        <v>504.81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B182">
+        <v>513.29999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B183">
+        <v>517.96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B184">
+        <v>523.53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B185">
+        <v>532.32000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B186">
+        <v>537.04999999999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B187">
+        <v>547.48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B188">
+        <v>557.36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B189">
+        <v>563.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B190">
+        <v>570.66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B191">
+        <v>584.32000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B192">
+        <v>604.84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B193">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
         <v>44592</v>
       </c>
-      <c r="B2" t="n">
-        <v>11.10415605211441</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B194">
+        <v>763.23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>44620</v>
       </c>
-      <c r="B3" t="n">
-        <v>4.808511195838738</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B195">
+        <v>799.93</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>44651</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.464228119960501</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B196">
+        <v>843.64</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
         <v>44681</v>
       </c>
-      <c r="B5" t="n">
-        <v>7.248352377791467</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B197">
+        <v>904.79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>44712</v>
       </c>
-      <c r="B6" t="n">
-        <v>2.980802175090358</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B198">
+        <v>931.76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
         <v>44742</v>
       </c>
-      <c r="B7" t="n">
-        <v>4.951918949085599</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B199">
+        <v>977.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
         <v>44773</v>
       </c>
-      <c r="B8" t="n">
-        <v>2.365272522752848</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B200">
+        <v>1001.03</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
         <v>44804</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.460495689439867</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B201">
+        <v>1015.65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
         <v>44834</v>
       </c>
-      <c r="B10" t="n">
-        <v>3.075862747993918</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B202">
+        <v>1046.8900000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
         <v>44865</v>
       </c>
-      <c r="B11" t="n">
-        <v>3.544785029945841</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B203">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
         <v>44895</v>
       </c>
-      <c r="B12" t="n">
-        <v>2.883763837638376</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="B204">
+        <v>1115.26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
         <v>44926</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.182683858472466</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="B205">
+        <v>1128.45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
         <v>44957</v>
       </c>
-      <c r="B14" t="n">
-        <v>6.648943240728422</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="B206">
+        <v>1203.48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
         <v>44985</v>
       </c>
-      <c r="B15" t="n">
-        <v>3.145046033170473</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="B207">
+        <v>1241.33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
         <v>45016</v>
       </c>
-      <c r="B16" t="n">
-        <v>2.28947983211556</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="B208">
+        <v>1269.75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
         <v>45046</v>
       </c>
-      <c r="B17" t="n">
-        <v>2.385508958456395</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="B209">
+        <v>1300.04</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
         <v>45077</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.04307559767391389</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="B210">
+        <v>1300.5999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
         <v>45107</v>
       </c>
-      <c r="B19" t="n">
-        <v>3.920498231585423</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="B211">
+        <v>1351.59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
         <v>45138</v>
       </c>
-      <c r="B20" t="n">
-        <v>9.488824273633266</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="B212">
+        <v>1479.84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
         <v>45169</v>
       </c>
-      <c r="B21" t="n">
-        <v>9.086793166828855</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="B213">
+        <v>1614.31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
         <v>45199</v>
       </c>
-      <c r="B22" t="n">
-        <v>4.753114333678177</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="B214">
+        <v>1691.04</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
         <v>45230</v>
       </c>
-      <c r="B23" t="n">
-        <v>3.433981455199153</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="B215">
+        <v>1749.11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
         <v>45260</v>
       </c>
-      <c r="B24" t="n">
-        <v>3.281097243741105</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="B216">
+        <v>1806.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
         <v>45291</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.927207306947133</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="B217">
+        <v>1859.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
         <v>45322</v>
       </c>
-      <c r="B26" t="n">
-        <v>6.703309705385663</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="B218">
+        <v>1984.02</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
         <v>45351</v>
       </c>
-      <c r="B27" t="n">
-        <v>4.529188213828506</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="B219">
+        <v>2073.88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
         <v>45382</v>
       </c>
-      <c r="B28" t="n">
-        <v>3.162670935637535</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="B220">
+        <v>2139.4699999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
         <v>45412</v>
       </c>
-      <c r="B29" t="n">
-        <v>3.179759473140553</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="B221">
+        <v>2207.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
         <v>45443</v>
       </c>
-      <c r="B30" t="n">
-        <v>3.36806342015854</v>
-      </c>
+      <c r="B222">
+        <v>2281.85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B223">
+        <v>2319.29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B224">
+        <v>2394.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B225">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
